--- a/tradingsystem/universe.xlsx
+++ b/tradingsystem/universe.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8640" activeTab="2"/>
+    <workbookView windowWidth="19890" windowHeight="8640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NIFTY50" sheetId="1" r:id="rId1"/>
     <sheet name="BANKNIFTY" sheetId="2" r:id="rId2"/>
     <sheet name="NIFTYNEXT50" sheetId="3" r:id="rId3"/>
+    <sheet name="FO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288">
   <si>
     <t>LT</t>
   </si>
@@ -325,6 +326,561 @@
   </si>
   <si>
     <t>MCDOWELL-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADANIENT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBUJACEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACC       </t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBK      </t>
+  </si>
+  <si>
+    <t>APOLLOHOSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARVIND    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXISBANK  </t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANKINDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATAINDIA </t>
+  </si>
+  <si>
+    <t>BHARATFORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEL       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHARATFIN </t>
+  </si>
+  <si>
+    <t>CENTURYTEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHEL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSCHLTD  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRREDDY   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITANNIA </t>
+  </si>
+  <si>
+    <t>CANFINHOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GODREJCP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEATLTD   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAVELLS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESC      </t>
+  </si>
+  <si>
+    <t>CHENNPETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLAFIN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIPLA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COALINDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLPAL    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINDTREE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCOR    </t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DABUR     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DALMIABHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCBBANK   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTLEIND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISHTV    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVISLAB  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLF       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTPC      </t>
+  </si>
+  <si>
+    <t>ENGINERSIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCORTS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPF      </t>
+  </si>
+  <si>
+    <t>CASTROLIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONGC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXIDEIND  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEL       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETRONET  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAIL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWERGRID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GODREJIND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANULES  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSFC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCC       </t>
+  </si>
+  <si>
+    <t>RELCAPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCLTECH   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELINFRA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFCBANK  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHREECEM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNPHARMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINDALCO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EICHERMOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINDZINC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICICIBANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHM     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDBI      </t>
+  </si>
+  <si>
+    <t>GODFRYPHLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPL       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDFC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGL       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIANB   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFY      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRB       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC       </t>
+  </si>
+  <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>JISLJALEQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSWSTEEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUBLFOOD  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIT      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIACEM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADILAHC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSCL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFIBEAM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTKBANK   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;MFIN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCX       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFSL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGL       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRF       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPL      </t>
+  </si>
+  <si>
+    <t>MUTHOOTFIN</t>
+  </si>
+  <si>
+    <t>NATIONALUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBCC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCC       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIITTECH  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMDC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFSS      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL       </t>
+  </si>
+  <si>
+    <t>ORIENTBANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGEIND   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFC       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATACOMM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNB       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTC       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVR       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCOCEM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIPRO     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYMOND   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBLBANK   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCOM      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECLTD    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELIANCE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPCOHOME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAIL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBIN      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIEMENS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRF       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATACHEM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATAELXSI </t>
+  </si>
+  <si>
+    <t>TATAGLOBAL</t>
+  </si>
+  <si>
+    <t>TATAMTRDVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATASTEEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITAN     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBL       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UJJIVAN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIONBANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLTAS    </t>
+  </si>
+  <si>
+    <t>WOCKPHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YESBANK   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPCL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNDIBANK </t>
+  </si>
+  <si>
+    <t>AMARAJABAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGUARD    </t>
+  </si>
+  <si>
+    <t>BERGEPAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGPOWER   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHFL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASIM    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDFCBANK  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIGO    </t>
+  </si>
+  <si>
+    <t>ADANIPOWER</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;TFH     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUPIN     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;M       </t>
+  </si>
+  <si>
+    <t>ANDHRABANK</t>
+  </si>
+  <si>
+    <t>BALRAMCHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEML      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOC       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANBK     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPOWER    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SREINFRA  </t>
+  </si>
+  <si>
+    <t>JETAIRWAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAR      </t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>TV18BRDCST</t>
+  </si>
+  <si>
+    <t>MANAPPURAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHOKLEY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFRATEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOTAKBANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARICO    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARUTI    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNTV     </t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATAPOWER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUITAS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLENMARK  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMRINFRA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINDPETRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOCON    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEEL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUSTDIAL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LICHSGFIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVSMOTOR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEXAWARE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCS       </t>
+  </si>
+  <si>
+    <t>JPASSOCIAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHPC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFCI      </t>
+  </si>
+  <si>
+    <t>PCJEWELLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTHBANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUZLON    </t>
   </si>
 </sst>
 </file>
@@ -332,10 +888,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -354,13 +910,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -369,9 +918,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +930,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,16 +955,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +965,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,24 +981,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,7 +1002,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,6 +1019,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,7 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,49 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +1121,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,13 +1181,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,43 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +1274,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -744,21 +1315,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -776,8 +1332,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,8 +1341,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,144 +1351,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,10 +1496,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,7 +2169,7 @@
   <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1872,4 +2429,1054 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A206"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>